--- a/reports/Excels/4_Ablation_study_single.xlsx
+++ b/reports/Excels/4_Ablation_study_single.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orelt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orelt\projects\Sleep-Stage-Prediction-Classification-Using-Neural-ODE\reports\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD8E153-C41D-416E-92C0-98A7B4EC8219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61237D26-4EAC-478D-BE86-A825014CDFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33828" yWindow="3984" windowWidth="18228" windowHeight="6492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34236" yWindow="4344" windowWidth="21612" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="2" r:id="rId2"/>
+    <sheet name="גיליון3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>SC4001E0</t>
   </si>
@@ -110,6 +112,45 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>alpha_train acc</t>
+  </si>
+  <si>
+    <t>alpha_test acc</t>
+  </si>
+  <si>
+    <t>delta_train acc</t>
+  </si>
+  <si>
+    <t>delta_test acc</t>
+  </si>
+  <si>
+    <t>theta_train acc</t>
+  </si>
+  <si>
+    <t>theta_test acc</t>
+  </si>
+  <si>
+    <t>sigma_train acc</t>
+  </si>
+  <si>
+    <t>sigma_test acc</t>
+  </si>
+  <si>
+    <t>beta_train acc</t>
+  </si>
+  <si>
+    <t>beta_test acc</t>
   </si>
 </sst>
 </file>
@@ -117,9 +158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +209,17 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +251,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -255,16 +310,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,23 +362,36 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="6"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="3"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="הערה" xfId="4" builtinId="10"/>
     <cellStyle name="חישוב" xfId="3" builtinId="22"/>
     <cellStyle name="טוב" xfId="1" builtinId="26"/>
     <cellStyle name="טקסט הסברי" xfId="5" builtinId="53"/>
     <cellStyle name="ניטראלי" xfId="2" builtinId="28"/>
+    <cellStyle name="תא מסומן" xfId="6" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -574,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1303,4 +1400,341 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19235A06-74C5-4235-94C0-3F10647AC1D7}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11"/>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.48174995976673546</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.46923032330046627</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.45758788904592246</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.45214643380485486</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.45758788904592246</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.45214643380485486</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.97414561666666666</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.72610264679999981</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.56103132219999996</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.48513803666666672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.50960566228513604</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.47154471544715398</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.47387606318347503</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.44090909090908997</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.47387606318347503</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.44090909090908997</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.73333333300000003</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.52740740699999999</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.1001245185150129</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.10913451994585303</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9.265984817279739E-2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>9.5758580348199729E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>9.265984817279739E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>9.5758580348199729E-2</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.10013359607646255</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7.126693492968969E-2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.2162763857273797</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.13001800500084643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E7B899-8741-4E8C-A5BE-B4D3D0856DDD}">
+  <dimension ref="E4:H14"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="E4:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.1001245185150129</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.50960566228513604</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.48174995976673546</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.10913451994585303</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.47154471544715398</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.46923032330046627</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="10">
+        <v>9.265984817279739E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.47387606318347503</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.45758788904592246</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9.5758580348199729E-2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.44090909090908997</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.45214643380485486</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10">
+        <v>9.265984817279739E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.47387606318347503</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.45758788904592246</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="10">
+        <v>9.5758580348199729E-2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.44090909090908997</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.45214643380485486</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.10013359607646255</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.97414561666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10">
+        <v>7.126693492968969E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.73333333300000003</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.72610264679999981</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.2162763857273797</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.52740740699999999</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.56103132219999996</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.13001800500084643</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.48513803666666672</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>